--- a/biology/Neurosciences/Genes,_Brain_and_Behavior/Genes,_Brain_and_Behavior.xlsx
+++ b/biology/Neurosciences/Genes,_Brain_and_Behavior/Genes,_Brain_and_Behavior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Genes, Brain and Behavior ou G2B (en français, Gènes, cerveau et comportement, abrégé en Genes Brain Behav.) est une revue scientifique à comité de lecture dans les domaines de la génétique comportementale, neuronale et psychiatrique[1].
-D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 4,061 en 2010. Le directeur fondateur est Wim E. Crusio (CNRS et université Bordeaux-I, France). L'actuel directeur de publication est Andrew Holmes (National Institute on Alcohol Abuse and Alcoholism, Bethesda, MD, États-Unis)[2]. Le journal est publié par Wiley-Blackwell pour l'International Behavioural and Neural Genetics Society.
+Genes, Brain and Behavior ou G2B (en français, Gènes, cerveau et comportement, abrégé en Genes Brain Behav.) est une revue scientifique à comité de lecture dans les domaines de la génétique comportementale, neuronale et psychiatrique.
+D'après le Journal Citation Reports, le facteur d'impact de ce journal était de 4,061 en 2010. Le directeur fondateur est Wim E. Crusio (CNRS et université Bordeaux-I, France). L'actuel directeur de publication est Andrew Holmes (National Institute on Alcohol Abuse and Alcoholism, Bethesda, MD, États-Unis). Le journal est publié par Wiley-Blackwell pour l'International Behavioural and Neural Genetics Society.
 </t>
         </is>
       </c>
